--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClImm.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClImm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB96DE56-0CA1-4771-AEEB-004C622AF86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -482,21 +483,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-1.抵押權
-2.地上權
-3.抵押權+地上權</t>
-  </si>
-  <si>
-    <t>共用代碼檔
-1.擔保品遭查封(民事執行處)
-2.擔保品遭查封(行政執行處)
-3.本公司申請裁定拍賣抵押物
-4.擔保品經本公司聲請強制執行
-5.擔保品之查封經撤銷(民事執行處)
-6.擔保品之查封經撤銷(行政執行處)</t>
-  </si>
-  <si>
     <t>1:設定
 2:解除</t>
   </si>
@@ -526,11 +512,28 @@
     <t>設定順位(1~9)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>共用代碼檔
+1:抵押權
+2:地上權
+3:抵押權+地上權</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+1:擔保品遭查封(民事執行處)
+2:擔保品遭查封(行政執行處)
+3:本公司申請裁定拍賣抵押物
+4:擔保品經本公司聲請強制執行
+5:擔保品之查封經撤銷(民事執行處)
+6:擔保品之查封經撤銷(行政執行處)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -760,7 +763,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -851,6 +854,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -886,6 +906,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1061,11 +1098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1135,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>24</v>
@@ -1360,7 +1397,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1476,7 +1513,7 @@
         <v>109</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>3</v>
@@ -1627,7 +1664,7 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1660,7 +1697,7 @@
         <v>78</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="18">
         <v>20</v>
@@ -1698,7 +1735,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="18">
         <v>20</v>
@@ -1724,7 +1761,7 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1745,7 +1782,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1815,7 +1852,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>3</v>
@@ -2077,7 +2114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
